--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/20/seed4/result_data_KNN.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.606</v>
+        <v>16.405</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.263999999999999</v>
+        <v>-7.768000000000001</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.684</v>
+        <v>-21.658</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.168000000000001</v>
+        <v>-7.456</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.232</v>
+        <v>-22.219</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.822</v>
+        <v>-7.813</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -695,12 +695,12 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.168</v>
+        <v>15.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-22.06</v>
+        <v>-22.013</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.208</v>
+        <v>-21.93</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.406000000000001</v>
+        <v>-7.851999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.13</v>
+        <v>-20.1</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.624</v>
+        <v>-21.59</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.442</v>
+        <v>-7.547</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.938</v>
+        <v>-22.004</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.327999999999999</v>
+        <v>-8.228999999999999</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -916,12 +916,12 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.588</v>
+        <v>17.041</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.622</v>
+        <v>-21.135</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.965999999999999</v>
+        <v>-7.481999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.518</v>
+        <v>17.093</v>
       </c>
     </row>
     <row r="34">
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.552</v>
+        <v>-19.982</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1035,12 +1035,12 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.646</v>
+        <v>16.604</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.78</v>
+        <v>-20.339</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8</v>
+        <v>-7.822</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,10 +1083,10 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.634</v>
+        <v>-7.795999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>16.616</v>
+        <v>16.796</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.544</v>
+        <v>17.052</v>
       </c>
     </row>
     <row r="44">
@@ -1188,12 +1188,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.978</v>
+        <v>16.723</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.516</v>
+        <v>-21.453</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.366</v>
+        <v>16.526</v>
       </c>
     </row>
     <row r="46">
@@ -1236,10 +1236,10 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.762</v>
+        <v>-7.325</v>
       </c>
       <c r="E47" t="n">
-        <v>17.04</v>
+        <v>16.854</v>
       </c>
     </row>
     <row r="48">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.552000000000001</v>
+        <v>-8.407</v>
       </c>
       <c r="E51" t="n">
-        <v>16.71</v>
+        <v>16.726</v>
       </c>
     </row>
     <row r="52">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.926</v>
+        <v>-8.1</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1358,12 +1358,12 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.604</v>
+        <v>16.655</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.202</v>
+        <v>-22.149</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.978</v>
+        <v>-8.041999999999998</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.092</v>
+        <v>-22.125</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.288</v>
+        <v>16.35</v>
       </c>
     </row>
     <row r="58">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.526</v>
+        <v>16.207</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.732</v>
+        <v>17.689</v>
       </c>
     </row>
     <row r="64">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.062</v>
+        <v>17.018</v>
       </c>
     </row>
     <row r="68">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.64</v>
+        <v>-21.498</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-6.862</v>
+        <v>-7.56</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.928</v>
+        <v>-7.531000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>18.3</v>
+        <v>17.585</v>
       </c>
     </row>
     <row r="71">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.64</v>
+        <v>-20.047</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-8.039999999999999</v>
+        <v>-7.743</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.684</v>
+        <v>-20.086</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1814,15 +1814,15 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-8.407999999999999</v>
+        <v>-7.962000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.716</v>
+        <v>17.223</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.22</v>
+        <v>-22.018</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.32</v>
+        <v>-21.872</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.521999999999998</v>
+        <v>-8.270999999999999</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.552</v>
+        <v>16.447</v>
       </c>
     </row>
     <row r="89">
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.056</v>
+        <v>-21.449</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.415999999999999</v>
+        <v>-7.456</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2072,12 +2072,12 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.416</v>
+        <v>16.725</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-22.166</v>
+        <v>-22.136</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.558</v>
+        <v>16.775</v>
       </c>
     </row>
     <row r="100">
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.548000000000002</v>
+        <v>-8.215999999999999</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.76</v>
+        <v>-7.764</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
